--- a/02_data/rawdata/Dataextraction_Johanna_14.08.2024.xlsx
+++ b/02_data/rawdata/Dataextraction_Johanna_14.08.2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Documents\PhD\UmbrellaMA\02_data\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0BE199B-3BD4-4A80-9B26-0EE9EF543BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04131B27-878B-48D7-B0A1-8DB4E229DE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3AAACC5A-9152-4926-B2FC-12F3D1DCD83D}"/>
   </bookViews>
@@ -50,7 +50,7 @@
     <author>tc={2D870865-A1BD-40C5-9F82-210C4FA1A8A5}</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{11D8E69E-353D-45DE-A728-9F00CC35365B}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{11D8E69E-353D-45DE-A728-9F00CC35365B}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -69,7 +69,7 @@
 If studies with different populations were used in the pooled analysis, please state all (e.g. APS, NPS, SCZ)</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{E90F68CE-BF86-4A0E-B7E2-F0BF103A18BC}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{E90F68CE-BF86-4A0E-B7E2-F0BF103A18BC}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -77,7 +77,7 @@
     How was the target population identified? e.g. DSM-5, ICD-10, CAARMS ...</t>
       </text>
     </comment>
-    <comment ref="AG1" authorId="2" shapeId="0" xr:uid="{25C5F2AB-3489-483F-8E68-5563E0E4FD4C}">
+    <comment ref="AJ1" authorId="2" shapeId="0" xr:uid="{25C5F2AB-3489-483F-8E68-5563E0E4FD4C}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -86,7 +86,7 @@
 e.g. PANSS, DSM-5 ...</t>
       </text>
     </comment>
-    <comment ref="AH1" authorId="3" shapeId="0" xr:uid="{6C4A7145-0951-4AEA-B922-EF3A53049A45}">
+    <comment ref="AK1" authorId="3" shapeId="0" xr:uid="{6C4A7145-0951-4AEA-B922-EF3A53049A45}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -94,7 +94,7 @@
     Use Prospective or Retrospective</t>
       </text>
     </comment>
-    <comment ref="AK1" authorId="4" shapeId="0" xr:uid="{3579C19F-8CA7-49E5-A025-A44C02E786BC}">
+    <comment ref="AN1" authorId="4" shapeId="0" xr:uid="{3579C19F-8CA7-49E5-A025-A44C02E786BC}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -102,7 +102,7 @@
     use months</t>
       </text>
     </comment>
-    <comment ref="AU1" authorId="5" shapeId="0" xr:uid="{89C1D350-60DF-4EF6-9B4A-8059A1237039}">
+    <comment ref="AX1" authorId="5" shapeId="0" xr:uid="{89C1D350-60DF-4EF6-9B4A-8059A1237039}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -110,7 +110,7 @@
     These 4 purple columns are for “binary” or “raw” data that is used to calculate odds ratios. You can google “binary data for odds ratio” to get an understanding, but essentially each subject within a RF in a paper can only exist in one of these 4 purple columns, based on whether they have/do not used cannabis and whether they developed psychotic symptoms or not. This is why, in a paper that had e.g. 100 subjects, for a given risk factor, the sum total of these 4 purple columns will add up to 100.</t>
       </text>
     </comment>
-    <comment ref="CU1" authorId="6" shapeId="0" xr:uid="{2967C25E-7ECF-417F-95B7-7B187617532F}">
+    <comment ref="CX1" authorId="6" shapeId="0" xr:uid="{2967C25E-7ECF-417F-95B7-7B187617532F}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -118,7 +118,7 @@
     Make sure you are reporting the SD (and not SE, they are different!). If no SD and only SE, extract it and make a clear note.</t>
       </text>
     </comment>
-    <comment ref="CW1" authorId="7" shapeId="0" xr:uid="{5EF343A8-9211-4E48-8AA6-D42452ABDCCA}">
+    <comment ref="CZ1" authorId="7" shapeId="0" xr:uid="{5EF343A8-9211-4E48-8AA6-D42452ABDCCA}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -126,7 +126,7 @@
     Make sure you are reporting the SD (and not SE, they are different!). If no SD and only SE, extract it and make a clear note.</t>
       </text>
     </comment>
-    <comment ref="CY1" authorId="8" shapeId="0" xr:uid="{3AD5F74E-72C6-4EE6-BBBB-A14FAD1763B1}">
+    <comment ref="DB1" authorId="8" shapeId="0" xr:uid="{3AD5F74E-72C6-4EE6-BBBB-A14FAD1763B1}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -136,7 +136,7 @@
     hedges g</t>
       </text>
     </comment>
-    <comment ref="DB1" authorId="9" shapeId="0" xr:uid="{2D870865-A1BD-40C5-9F82-210C4FA1A8A5}">
+    <comment ref="DE1" authorId="9" shapeId="0" xr:uid="{2D870865-A1BD-40C5-9F82-210C4FA1A8A5}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="191">
   <si>
     <t xml:space="preserve">Extracted by </t>
   </si>
@@ -544,7 +544,184 @@
     <t>Lavoie</t>
   </si>
   <si>
-    <t>Henquet</t>
+    <t>CHR</t>
+  </si>
+  <si>
+    <t>20.3(3.9)</t>
+  </si>
+  <si>
+    <t>18.9(3.9)</t>
+  </si>
+  <si>
+    <t>Johanna</t>
+  </si>
+  <si>
+    <t>past year</t>
+  </si>
+  <si>
+    <t>any use</t>
+  </si>
+  <si>
+    <t>lifetime</t>
+  </si>
+  <si>
+    <t>CUD</t>
+  </si>
+  <si>
+    <t>Chi-Square = 0.78</t>
+  </si>
+  <si>
+    <t>Chi-Square = 1.05</t>
+  </si>
+  <si>
+    <t>.38</t>
+  </si>
+  <si>
+    <t>.31</t>
+  </si>
+  <si>
+    <t>prospective longitudinal cohort</t>
+  </si>
+  <si>
+    <t>no use</t>
+  </si>
+  <si>
+    <t>no CUD</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.schres.2010.09.007</t>
+  </si>
+  <si>
+    <t>SIPS, DSM,BLIPS, BSABS-P</t>
+  </si>
+  <si>
+    <t>transition to psychosis</t>
+  </si>
+  <si>
+    <t>score of 6 in one or more of the positive items of the SIPS with duration of more one week</t>
+  </si>
+  <si>
+    <t>Outcom_coded</t>
+  </si>
+  <si>
+    <t>SIPS, SCID</t>
+  </si>
+  <si>
+    <t>SIPS,SCID</t>
+  </si>
+  <si>
+    <t>Sample similar to Velthorst et al.2009</t>
+  </si>
+  <si>
+    <t>Sample similar to Velthorst et al.2010</t>
+  </si>
+  <si>
+    <t>Exclusion Criteria</t>
+  </si>
+  <si>
+    <t>hard drugs use (cocaine, heroine,amphetamines, magic,  mushrooms),iQ&lt;85,symptoms only due to drug use or organic factors, subjects who used cannabis were asked if they had a period of symptoms in which they did not use cannabis and if not they were asked to stop using for two weeks to see if symptoms continued</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>Amsterdam Site of Dutch Prediction of Psychosis Study (DUPS)</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Environmental factors and social adjustment as predictors of a first psychosis in subjects at ultra high risk</t>
+  </si>
+  <si>
+    <t>Sara Dragt , Dorien H. Nieman , Doede Veltman , Hiske E. Becker Lieuwe de Haan , Don H. Linszen</t>
+  </si>
+  <si>
+    <t>The temporal dynamics of relationships between cannabis, psychosis and depression among young adults with psychotic disorders: findings from a 10-month prospective study</t>
+  </si>
+  <si>
+    <t>16-50</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Patients of the community mental health centres in the Northern Sydney Area Health Service</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>schizophrenia, schizophreniform disorder, schizoaffective disorder</t>
+  </si>
+  <si>
+    <t>psychotic symptoms</t>
+  </si>
+  <si>
+    <t>BRPS</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>10 months</t>
+  </si>
+  <si>
+    <t>36 months</t>
+  </si>
+  <si>
+    <t>0.129</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>0.033</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>prior psychotic symptoms, current depressive symptoms, sex</t>
+  </si>
+  <si>
+    <t>past month</t>
+  </si>
+  <si>
+    <t>number of days use</t>
+  </si>
+  <si>
+    <t>25.3(SE=6.4)</t>
+  </si>
+  <si>
+    <t>monthly measures</t>
+  </si>
+  <si>
+    <t>univariate GEE, multiple regression</t>
+  </si>
+  <si>
+    <t>within-subjects design, several measures of cannabis use and psychosis over 10 months, adjusted and unadjusted unstandardized betas</t>
+  </si>
+  <si>
+    <t>doi:10.1017/S0033291707009956</t>
+  </si>
+  <si>
+    <t>Pittsburgh Youth Study</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>past month and past year</t>
   </si>
 </sst>
 </file>
@@ -592,12 +769,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,6 +908,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -871,7 +1061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1038,6 +1228,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1379,7 +1573,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I1" dT="2021-07-21T20:28:28.02" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{11D8E69E-353D-45DE-A728-9F00CC35365B}">
+  <threadedComment ref="K1" dT="2021-07-21T20:28:28.02" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{11D8E69E-353D-45DE-A728-9F00CC35365B}">
     <text>In which population is cannabis consumption and the outcome measured?
 Please use the following Abbrevations:
 HP = Healthy individuals (general population)
@@ -1393,35 +1587,35 @@
 APS = Affective Psychosis ( i.e. MDD with psychotic features, bipolar disorder with psychotic features...)
 If studies with different populations were used in the pooled analysis, please state all (e.g. APS, NPS, SCZ)</text>
   </threadedComment>
-  <threadedComment ref="K1" dT="2021-07-21T20:29:37.10" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{E90F68CE-BF86-4A0E-B7E2-F0BF103A18BC}">
+  <threadedComment ref="M1" dT="2021-07-21T20:29:37.10" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{E90F68CE-BF86-4A0E-B7E2-F0BF103A18BC}">
     <text>How was the target population identified? e.g. DSM-5, ICD-10, CAARMS ...</text>
   </threadedComment>
-  <threadedComment ref="AG1" dT="2021-07-21T21:16:32.43" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{25C5F2AB-3489-483F-8E68-5563E0E4FD4C}">
+  <threadedComment ref="AJ1" dT="2021-07-21T21:16:32.43" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{25C5F2AB-3489-483F-8E68-5563E0E4FD4C}">
     <text>How was the outcome (transitioning to psychosis, psychotic symptoms, subclinical psychotic symptoms etc measured? 
 e.g. PANSS, DSM-5 ...</text>
   </threadedComment>
-  <threadedComment ref="AH1" dT="2020-01-30T15:47:15.22" personId="{CD06699D-F9B0-4E16-B3C7-56F9D6109F9B}" id="{6C4A7145-0951-4AEA-B922-EF3A53049A45}">
+  <threadedComment ref="AK1" dT="2020-01-30T15:47:15.22" personId="{CD06699D-F9B0-4E16-B3C7-56F9D6109F9B}" id="{6C4A7145-0951-4AEA-B922-EF3A53049A45}">
     <text>Use Prospective or Retrospective</text>
   </threadedComment>
-  <threadedComment ref="AK1" dT="2021-07-27T11:55:01.30" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{3579C19F-8CA7-49E5-A025-A44C02E786BC}">
+  <threadedComment ref="AN1" dT="2021-07-27T11:55:01.30" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{3579C19F-8CA7-49E5-A025-A44C02E786BC}">
     <text>use months</text>
   </threadedComment>
-  <threadedComment ref="AU1" dT="2021-07-22T10:51:44.19" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{89C1D350-60DF-4EF6-9B4A-8059A1237039}">
+  <threadedComment ref="AX1" dT="2021-07-22T10:51:44.19" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{89C1D350-60DF-4EF6-9B4A-8059A1237039}">
     <text>These 4 purple columns are for “binary” or “raw” data that is used to calculate odds ratios. You can google “binary data for odds ratio” to get an understanding, but essentially each subject within a RF in a paper can only exist in one of these 4 purple columns, based on whether they have/do not used cannabis and whether they developed psychotic symptoms or not. This is why, in a paper that had e.g. 100 subjects, for a given risk factor, the sum total of these 4 purple columns will add up to 100.</text>
   </threadedComment>
-  <threadedComment ref="CU1" dT="2021-07-22T11:02:39.21" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{2967C25E-7ECF-417F-95B7-7B187617532F}">
+  <threadedComment ref="CX1" dT="2021-07-22T11:02:39.21" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{2967C25E-7ECF-417F-95B7-7B187617532F}">
     <text>Make sure you are reporting the SD (and not SE, they are different!). If no SD and only SE, extract it and make a clear note.</text>
   </threadedComment>
-  <threadedComment ref="CW1" dT="2021-07-22T11:02:44.92" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{5EF343A8-9211-4E48-8AA6-D42452ABDCCA}">
+  <threadedComment ref="CZ1" dT="2021-07-22T11:02:44.92" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{5EF343A8-9211-4E48-8AA6-D42452ABDCCA}">
     <text>Make sure you are reporting the SD (and not SE, they are different!). If no SD and only SE, extract it and make a clear note.</text>
   </threadedComment>
-  <threadedComment ref="CY1" dT="2021-08-02T22:35:31.98" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{3AD5F74E-72C6-4EE6-BBBB-A14FAD1763B1}">
+  <threadedComment ref="DB1" dT="2021-08-02T22:35:31.98" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{3AD5F74E-72C6-4EE6-BBBB-A14FAD1763B1}">
     <text>What kind of stanardized mean difference is that? e.g. Cohen's d , Glass' delta</text>
   </threadedComment>
-  <threadedComment ref="CY1" dT="2021-08-03T00:07:06.64" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{7B2A2722-2B10-4D98-A067-59E16A31DB60}" parentId="{3AD5F74E-72C6-4EE6-BBBB-A14FAD1763B1}">
+  <threadedComment ref="DB1" dT="2021-08-03T00:07:06.64" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{7B2A2722-2B10-4D98-A067-59E16A31DB60}" parentId="{3AD5F74E-72C6-4EE6-BBBB-A14FAD1763B1}">
     <text>hedges g</text>
   </threadedComment>
-  <threadedComment ref="DB1" dT="2021-08-02T23:37:28.46" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{2D870865-A1BD-40C5-9F82-210C4FA1A8A5}">
+  <threadedComment ref="DE1" dT="2021-08-02T23:37:28.46" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{2D870865-A1BD-40C5-9F82-210C4FA1A8A5}">
     <text>what is the p-value for the SMD?</text>
   </threadedComment>
 </ThreadedComments>
@@ -1429,24 +1623,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BCF2B3-B3E3-4473-A74F-1557EB7AB89B}">
-  <dimension ref="A1:DS11"/>
+  <dimension ref="A1:DW11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D13"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="110.26953125" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" customWidth="1"/>
-    <col min="18" max="18" width="21.26953125" customWidth="1"/>
-    <col min="19" max="19" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="84.453125" customWidth="1"/>
+    <col min="6" max="6" width="129.90625" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" customWidth="1"/>
+    <col min="10" max="10" width="28.81640625" customWidth="1"/>
+    <col min="13" max="13" width="23.36328125" customWidth="1"/>
+    <col min="16" max="16" width="24.453125" customWidth="1"/>
+    <col min="17" max="17" width="35" customWidth="1"/>
+    <col min="18" max="18" width="46.08984375" customWidth="1"/>
+    <col min="20" max="20" width="21.26953125" customWidth="1"/>
+    <col min="21" max="21" width="24.6328125" customWidth="1"/>
+    <col min="22" max="23" width="16.1796875" customWidth="1"/>
+    <col min="25" max="25" width="16" customWidth="1"/>
+    <col min="29" max="29" width="18.08984375" customWidth="1"/>
+    <col min="31" max="31" width="21.1796875" customWidth="1"/>
+    <col min="32" max="32" width="19.08984375" customWidth="1"/>
+    <col min="34" max="34" width="72.90625" customWidth="1"/>
+    <col min="35" max="35" width="19.453125" customWidth="1"/>
+    <col min="36" max="36" width="9.36328125" customWidth="1"/>
+    <col min="39" max="39" width="36.1796875" customWidth="1"/>
+    <col min="48" max="48" width="9.36328125" customWidth="1"/>
+    <col min="54" max="54" width="13" customWidth="1"/>
+    <col min="117" max="117" width="8.1796875" customWidth="1"/>
+    <col min="118" max="118" width="51" customWidth="1"/>
+    <col min="119" max="119" width="31.36328125" customWidth="1"/>
+    <col min="120" max="120" width="31.08984375" customWidth="1"/>
+    <col min="122" max="122" width="21.90625" customWidth="1"/>
+    <col min="127" max="127" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123" s="55" customFormat="1" ht="49.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:127" s="55" customFormat="1" ht="49.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>69</v>
       </c>
@@ -1462,443 +1680,757 @@
       <c r="E1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="V1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="X1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="Y1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AD1" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="29" t="s">
+      <c r="AL1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AM1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AO1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="AM1" s="31" t="s">
+      <c r="AP1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AN1" s="32" t="s">
+      <c r="AQ1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AR1" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AS1" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AQ1" s="33" t="s">
+      <c r="AT1" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AR1" s="34" t="s">
+      <c r="AU1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AS1" s="34" t="s">
+      <c r="AV1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="AT1" s="35" t="s">
+      <c r="AW1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="AY1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AW1" s="13" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="BA1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AY1" s="13" t="s">
+      <c r="BB1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="AZ1" s="14" t="s">
+      <c r="BC1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="BA1" s="36" t="s">
+      <c r="BD1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="BB1" s="37" t="s">
+      <c r="BE1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="BC1" s="37" t="s">
+      <c r="BF1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="BD1" s="37" t="s">
+      <c r="BG1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="BE1" s="38" t="s">
+      <c r="BH1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="BF1" s="39" t="s">
+      <c r="BI1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="BG1" s="40" t="s">
+      <c r="BJ1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="BH1" s="40" t="s">
+      <c r="BK1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="BI1" s="40" t="s">
+      <c r="BL1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="BJ1" s="40" t="s">
+      <c r="BM1" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="BK1" s="15" t="s">
+      <c r="BN1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BL1" s="16" t="s">
+      <c r="BO1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="BM1" s="16" t="s">
+      <c r="BP1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="BN1" s="16" t="s">
+      <c r="BQ1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="BO1" s="16" t="s">
+      <c r="BR1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="BP1" s="41" t="s">
+      <c r="BS1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="BQ1" s="36" t="s">
+      <c r="BT1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="BR1" s="37" t="s">
+      <c r="BU1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="BS1" s="37" t="s">
+      <c r="BV1" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="BT1" s="37" t="s">
+      <c r="BW1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="BU1" s="38" t="s">
+      <c r="BX1" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="BV1" s="17" t="s">
+      <c r="BY1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="BW1" s="39" t="s">
+      <c r="BZ1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BX1" s="40" t="s">
+      <c r="CA1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="BY1" s="40" t="s">
+      <c r="CB1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="BZ1" s="40" t="s">
+      <c r="CC1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="CA1" s="40" t="s">
+      <c r="CD1" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="CB1" s="18" t="s">
+      <c r="CE1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="CC1" s="42" t="s">
+      <c r="CF1" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="CD1" s="41" t="s">
+      <c r="CG1" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="CE1" s="41" t="s">
+      <c r="CH1" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="CF1" s="41" t="s">
+      <c r="CI1" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="CG1" s="41" t="s">
+      <c r="CJ1" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="CH1" s="41" t="s">
+      <c r="CK1" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="CI1" s="43" t="s">
+      <c r="CL1" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="CJ1" s="44" t="s">
+      <c r="CM1" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="CK1" s="45" t="s">
+      <c r="CN1" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="CL1" s="45" t="s">
+      <c r="CO1" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="CM1" s="46" t="s">
+      <c r="CP1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="CN1" s="47" t="s">
+      <c r="CQ1" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="CO1" s="47" t="s">
+      <c r="CR1" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="CP1" s="47" t="s">
+      <c r="CS1" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="CQ1" s="47" t="s">
+      <c r="CT1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="CR1" s="47" t="s">
+      <c r="CU1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="CS1" s="47" t="s">
+      <c r="CV1" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="CT1" s="19" t="s">
+      <c r="CW1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="CU1" s="20" t="s">
+      <c r="CX1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="CV1" s="20" t="s">
+      <c r="CY1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="CW1" s="48" t="s">
+      <c r="CZ1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="CX1" s="49" t="s">
+      <c r="DA1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="CY1" s="49" t="s">
+      <c r="DB1" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="CZ1" s="21" t="s">
+      <c r="DC1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="DA1" s="21" t="s">
+      <c r="DD1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="DB1" s="21" t="s">
+      <c r="DE1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="DC1" s="50" t="s">
+      <c r="DF1" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="DD1" s="50" t="s">
+      <c r="DG1" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="DE1" s="50" t="s">
+      <c r="DH1" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="DF1" s="50" t="s">
+      <c r="DI1" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="DG1" s="50" t="s">
+      <c r="DJ1" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="DH1" s="50" t="s">
+      <c r="DK1" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="DI1" s="50" t="s">
+      <c r="DL1" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="DJ1" s="50" t="s">
+      <c r="DM1" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="DK1" s="50" t="s">
+      <c r="DN1" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="DL1" s="50" t="s">
+      <c r="DO1" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="DM1" s="51" t="s">
+      <c r="DP1" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="DN1" s="51" t="s">
+      <c r="DQ1" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="DO1" s="51" t="s">
+      <c r="DR1" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="DP1" s="51" t="s">
+      <c r="DS1" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="DQ1" s="52" t="s">
+      <c r="DT1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="DR1" s="53" t="s">
+      <c r="DU1" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="DS1" s="54" t="s">
+      <c r="DV1" s="54" t="s">
         <v>122</v>
       </c>
+      <c r="DW1" s="55" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="2" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="F2" t="s">
+    <row r="2" spans="1:127" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
         <v>123</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="F3" t="s">
+    <row r="3" spans="1:127" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" t="s">
         <v>123</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="F4" t="s">
+    <row r="4" spans="1:127" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" t="s">
         <v>124</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="F5" t="s">
+    <row r="5" spans="1:127" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="56">
         <v>2015</v>
       </c>
+      <c r="J5" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="W5" s="56">
+        <v>100</v>
+      </c>
+      <c r="Z5" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC5" s="56" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="6" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="F6" t="s">
+    <row r="6" spans="1:127" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="58">
         <v>2007</v>
       </c>
+      <c r="I6" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="O6" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y6" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z6" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA6" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC6" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH6" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ6" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK6" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM6" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN6" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO6" s="58">
+        <v>70</v>
+      </c>
+      <c r="DF6" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="DG6" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="DH6" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="DI6" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="DJ6" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="DM6" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="DN6" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="DO6" s="58" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="7" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="F7" t="s">
+    <row r="7" spans="1:127" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="G7">
+      <c r="H7" s="57">
         <v>2011</v>
       </c>
+      <c r="I7" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="X7" s="57">
+        <v>72</v>
+      </c>
+      <c r="Z7" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA7" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB7" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH7" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI7" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ7" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK7" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM7" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN7" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO7" s="57">
+        <v>72</v>
+      </c>
+      <c r="AP7" s="57">
+        <v>21</v>
+      </c>
+      <c r="AU7" s="57">
+        <v>19</v>
+      </c>
+      <c r="AV7" s="57">
+        <v>53</v>
+      </c>
+      <c r="AX7" s="57">
+        <v>4</v>
+      </c>
+      <c r="AZ7" s="57">
+        <v>17</v>
+      </c>
+      <c r="DR7" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="DS7" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="DW7" s="57" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="8" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="F8" t="s">
+    <row r="8" spans="1:127" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="57">
+        <v>2011</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="P8" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="X8" s="57">
+        <v>72</v>
+      </c>
+      <c r="Z8" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA8" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB8" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH8" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI8" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ8" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK8" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM8" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN8" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO8" s="57">
+        <v>72</v>
+      </c>
+      <c r="AP8" s="57">
+        <v>22</v>
+      </c>
+      <c r="AU8" s="57">
+        <v>19</v>
+      </c>
+      <c r="AV8" s="57">
+        <v>53</v>
+      </c>
+      <c r="AX8" s="57">
+        <v>4</v>
+      </c>
+      <c r="AZ8" s="57">
+        <v>18</v>
+      </c>
+      <c r="DR8" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="DS8" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="DW8" s="57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:127" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
         <v>128</v>
       </c>
-      <c r="G8">
+      <c r="H9">
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="F9" t="s">
+    <row r="10" spans="1:127" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" t="s">
         <v>129</v>
       </c>
-      <c r="G9">
+      <c r="H10">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="F10" t="s">
+    <row r="11" spans="1:127" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" t="s">
         <v>130</v>
       </c>
-      <c r="G10">
+      <c r="H11">
         <v>2014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:123" x14ac:dyDescent="0.35">
-      <c r="F11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11">
-        <v>2004</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/02_data/rawdata/Dataextraction_Johanna_14.08.2024.xlsx
+++ b/02_data/rawdata/Dataextraction_Johanna_14.08.2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Documents\PhD\UmbrellaMA\02_data\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04131B27-878B-48D7-B0A1-8DB4E229DE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88082A84-A27C-4BD9-8E89-F9DEFBF04D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3AAACC5A-9152-4926-B2FC-12F3D1DCD83D}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 If studies with different populations were used in the pooled analysis, please state all (e.g. APS, NPS, SCZ)</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{E90F68CE-BF86-4A0E-B7E2-F0BF103A18BC}">
+    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{E90F68CE-BF86-4A0E-B7E2-F0BF103A18BC}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -77,7 +77,7 @@
     How was the target population identified? e.g. DSM-5, ICD-10, CAARMS ...</t>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="2" shapeId="0" xr:uid="{25C5F2AB-3489-483F-8E68-5563E0E4FD4C}">
+    <comment ref="AL1" authorId="2" shapeId="0" xr:uid="{25C5F2AB-3489-483F-8E68-5563E0E4FD4C}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -86,7 +86,7 @@
 e.g. PANSS, DSM-5 ...</t>
       </text>
     </comment>
-    <comment ref="AK1" authorId="3" shapeId="0" xr:uid="{6C4A7145-0951-4AEA-B922-EF3A53049A45}">
+    <comment ref="AM1" authorId="3" shapeId="0" xr:uid="{6C4A7145-0951-4AEA-B922-EF3A53049A45}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -94,7 +94,7 @@
     Use Prospective or Retrospective</t>
       </text>
     </comment>
-    <comment ref="AN1" authorId="4" shapeId="0" xr:uid="{3579C19F-8CA7-49E5-A025-A44C02E786BC}">
+    <comment ref="AP1" authorId="4" shapeId="0" xr:uid="{3579C19F-8CA7-49E5-A025-A44C02E786BC}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -102,7 +102,7 @@
     use months</t>
       </text>
     </comment>
-    <comment ref="AX1" authorId="5" shapeId="0" xr:uid="{89C1D350-60DF-4EF6-9B4A-8059A1237039}">
+    <comment ref="AZ1" authorId="5" shapeId="0" xr:uid="{89C1D350-60DF-4EF6-9B4A-8059A1237039}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -110,7 +110,7 @@
     These 4 purple columns are for “binary” or “raw” data that is used to calculate odds ratios. You can google “binary data for odds ratio” to get an understanding, but essentially each subject within a RF in a paper can only exist in one of these 4 purple columns, based on whether they have/do not used cannabis and whether they developed psychotic symptoms or not. This is why, in a paper that had e.g. 100 subjects, for a given risk factor, the sum total of these 4 purple columns will add up to 100.</t>
       </text>
     </comment>
-    <comment ref="CX1" authorId="6" shapeId="0" xr:uid="{2967C25E-7ECF-417F-95B7-7B187617532F}">
+    <comment ref="CZ1" authorId="6" shapeId="0" xr:uid="{2967C25E-7ECF-417F-95B7-7B187617532F}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -118,7 +118,7 @@
     Make sure you are reporting the SD (and not SE, they are different!). If no SD and only SE, extract it and make a clear note.</t>
       </text>
     </comment>
-    <comment ref="CZ1" authorId="7" shapeId="0" xr:uid="{5EF343A8-9211-4E48-8AA6-D42452ABDCCA}">
+    <comment ref="DB1" authorId="7" shapeId="0" xr:uid="{5EF343A8-9211-4E48-8AA6-D42452ABDCCA}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -126,7 +126,7 @@
     Make sure you are reporting the SD (and not SE, they are different!). If no SD and only SE, extract it and make a clear note.</t>
       </text>
     </comment>
-    <comment ref="DB1" authorId="8" shapeId="0" xr:uid="{3AD5F74E-72C6-4EE6-BBBB-A14FAD1763B1}">
+    <comment ref="DD1" authorId="8" shapeId="0" xr:uid="{3AD5F74E-72C6-4EE6-BBBB-A14FAD1763B1}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -136,7 +136,7 @@
     hedges g</t>
       </text>
     </comment>
-    <comment ref="DE1" authorId="9" shapeId="0" xr:uid="{2D870865-A1BD-40C5-9F82-210C4FA1A8A5}">
+    <comment ref="DG1" authorId="9" shapeId="0" xr:uid="{2D870865-A1BD-40C5-9F82-210C4FA1A8A5}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="302">
   <si>
     <t xml:space="preserve">Extracted by </t>
   </si>
@@ -523,12 +523,6 @@
     <t>Albertella</t>
   </si>
   <si>
-    <t>Arias Horcajadas</t>
-  </si>
-  <si>
-    <t>Bechtold</t>
-  </si>
-  <si>
     <t>Degenhardt</t>
   </si>
   <si>
@@ -715,13 +709,360 @@
     <t>doi:10.1017/S0033291707009956</t>
   </si>
   <si>
-    <t>Pittsburgh Youth Study</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
-    <t>past month and past year</t>
+    <t>Same cohort as Bechtold 2016 (double-publication)</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1016/j.schres.2014.02.008</t>
+  </si>
+  <si>
+    <t>Sulcogyral pattern and sulcal count of the orbitofrontal cortex in individuals at ultra high risk for psychosis</t>
+  </si>
+  <si>
+    <t>UHR recruited from PACE clinic Orygen Youth Health</t>
+  </si>
+  <si>
+    <t>14-29</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>0.02*49</t>
+  </si>
+  <si>
+    <t>0.065*77</t>
+  </si>
+  <si>
+    <t>serious head injury, seizures, neurological disease, impaired thyroid function, corticosteroid use, meet criteria for alcohol or substance abuse or dependence according to DMS-III-R</t>
+  </si>
+  <si>
+    <t>20.6(3.6)</t>
+  </si>
+  <si>
+    <t>19.5(3.3)</t>
+  </si>
+  <si>
+    <t>CAARMS</t>
+  </si>
+  <si>
+    <t>CAARMS or medical record for those lost in follow-up</t>
+  </si>
+  <si>
+    <t>10.1years(6.5-12.8years)</t>
+  </si>
+  <si>
+    <t>past or current</t>
+  </si>
+  <si>
+    <t>unstandardized probit coefficients</t>
+  </si>
+  <si>
+    <t>unstandardized probit p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factors adjusted for unstandardized probit </t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>&gt;2 times/week</t>
+  </si>
+  <si>
+    <t>at age 17</t>
+  </si>
+  <si>
+    <t>psychotic symptoms at age 18</t>
+  </si>
+  <si>
+    <t>less than weekly</t>
+  </si>
+  <si>
+    <t>12 months</t>
+  </si>
+  <si>
+    <t>they also made a path analysisadjusting for several factors but it was not reported whether the path coefficients were standardized or standardized probit coefficients so I did not extract that data</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>38+23</t>
+  </si>
+  <si>
+    <t>793+1314</t>
+  </si>
+  <si>
+    <t>ALSPAC (Avon Longitudinal Study of Parents and Children)</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>NP: 44M/32F, P:29M/19F</t>
+  </si>
+  <si>
+    <t>Cannabis Use and Hypomania in Young People: A Prospective Analysis</t>
+  </si>
+  <si>
+    <t>doi:10.1093/schbul/sbx158</t>
+  </si>
+  <si>
+    <t>Steven Marwaha*,1,2, Catherine Winsper1, Paul Bebbington3, and Daniel Smith</t>
+  </si>
+  <si>
+    <t>Cannabis Use Is Associated With Increased Psychotic Symptoms and Poorer Psychosocial Functioning in First-Episode Psychosis: A Report From the UK National EDEN Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jennifer L. Seddon*,1, Max Birchwood2, Alex Copello3,4, Linda Everard4, Peter B. Jones5, David Fowler6, Tim Amos7, 
+Nick Freemantle8, Vimal Sharma9,10,  Max Marshall11, and  Swaran P. Singh2</t>
+  </si>
+  <si>
+    <t>10.1093/schbul/sbv154</t>
+  </si>
+  <si>
+    <t>National EDEN project</t>
+  </si>
+  <si>
+    <t>FEP</t>
+  </si>
+  <si>
+    <t>fepvschronic</t>
+  </si>
+  <si>
+    <t>Diagnosis, n (%)
+ Schizophrenia 227 (22)
+ Other nonaffective psychosis 468 (46)
+ Affective psychosis 117 (11)
+ Unknown diagnosis 215 (21)</t>
+  </si>
+  <si>
+    <t>23(4.9)</t>
+  </si>
+  <si>
+    <t>B_LCI</t>
+  </si>
+  <si>
+    <t>B_UCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psychotic symptoms </t>
+  </si>
+  <si>
+    <t>6.29</t>
+  </si>
+  <si>
+    <t>6.42</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>10.53</t>
+  </si>
+  <si>
+    <t>past three months</t>
+  </si>
+  <si>
+    <t>Kavanagh Drug Check scale</t>
+  </si>
+  <si>
+    <t>any use x Phase</t>
+  </si>
+  <si>
+    <t>cannabis x phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cross-sectional </t>
+  </si>
+  <si>
+    <t>PANSS(total)</t>
+  </si>
+  <si>
+    <t>PANSS(positive)</t>
+  </si>
+  <si>
+    <t>PANSS(negative)</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>-1.11</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>each subject provided information on the effect of cannabis at both time points, plus any additional effects of cannabis at the 1-year follow-up (through fitting an interaction between phase and cannabis use).</t>
+  </si>
+  <si>
+    <t>10.1093/schbul/sbv155</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jennifer L. Seddon*,1, Max Birchwood2, Alex Copello3,4, Linda Everard4, Peter B. Jones5, David Fowler6, Tim Amos7, 
+Nick Freemantle8, Vimal Sharma9,10,  Max Marshall11, and  Swaran P. Singh3</t>
+  </si>
+  <si>
+    <t>10.1093/schbul/sbv156</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jennifer L. Seddon*,1, Max Birchwood2, Alex Copello3,4, Linda Everard4, Peter B. Jones5, David Fowler6, Tim Amos7, 
+Nick Freemantle8, Vimal Sharma9,10,  Max Marshall11, and  Swaran P. Singh4</t>
+  </si>
+  <si>
+    <t>10.1093/schbul/sbv157</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jennifer L. Seddon*,1, Max Birchwood2, Alex Copello3,4, Linda Everard4, Peter B. Jones5, David Fowler6, Tim Amos7, 
+Nick Freemantle8, Vimal Sharma9,10,  Max Marshall11, and  Swaran P. Singh5</t>
+  </si>
+  <si>
+    <t>cannabis__&amp;outcome_analysis_timeframe</t>
+  </si>
+  <si>
+    <t>Baseline and 12 onths cross-sectional</t>
+  </si>
+  <si>
+    <t>Cannabis x Phase</t>
+  </si>
+  <si>
+    <t>15-24</t>
+  </si>
+  <si>
+    <t>Lucy Albertellaa,b,c,⁎ , Mike E. Le Pelleyb, Murat Yücela, Jan Copelandc,d</t>
+  </si>
+  <si>
+    <t>Age moderates the association between frequent cannabis use and negative schizotypy over time</t>
+  </si>
+  <si>
+    <t>online study with cannabis users recruited via advertisements in national newspapers, websites, community motice boards. Email updatelists</t>
+  </si>
+  <si>
+    <t>&gt;=weekly</t>
+  </si>
+  <si>
+    <t>past 6 months</t>
+  </si>
+  <si>
+    <t>OLIFE</t>
+  </si>
+  <si>
+    <t>positive schizotypy</t>
+  </si>
+  <si>
+    <t>diagnosis of a psychotic disorder</t>
+  </si>
+  <si>
+    <t>(38+49)/2</t>
+  </si>
+  <si>
+    <t>Wald Chi-Square =0.10</t>
+  </si>
+  <si>
+    <t>0.754</t>
+  </si>
+  <si>
+    <t>tobacco use and alcohol use (days in the last month); other drug use (number of illicit drug types used in the last six months, excluding cannabis); current psychological distress (DASS-21); and past month cannabis use. Past month cannabis use (days in the last month) was entered as a time-varying covariate to control for changes in cannabis use over time. The following baseline variables were also entered: age, gender, family history of psychosis, age of first cannabis use, age of first alcohol use, and lifetime Unusual Experiences score.</t>
+  </si>
+  <si>
+    <t>Wald Chi-Square =0.83</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>Wald Chi-Square =0.01</t>
+  </si>
+  <si>
+    <t>0.922</t>
+  </si>
+  <si>
+    <t>Wald Chi-Square =4.39</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>Wald Chi-Square =1.94</t>
+  </si>
+  <si>
+    <t>0.163</t>
+  </si>
+  <si>
+    <t>Wald Chi-Square =9.32</t>
+  </si>
+  <si>
+    <t>0.0009</t>
+  </si>
+  <si>
+    <t>15-25</t>
+  </si>
+  <si>
+    <t>(38+49)/3</t>
+  </si>
+  <si>
+    <t>15-26</t>
+  </si>
+  <si>
+    <t>(38+49)/4</t>
+  </si>
+  <si>
+    <t>15-27</t>
+  </si>
+  <si>
+    <t>(38+49)/5</t>
+  </si>
+  <si>
+    <t>15-28</t>
+  </si>
+  <si>
+    <t>(38+49)/6</t>
+  </si>
+  <si>
+    <t>15-29</t>
+  </si>
+  <si>
+    <t>(38+49)/7</t>
+  </si>
+  <si>
+    <t>days of cannabis use</t>
+  </si>
+  <si>
+    <t>frequency x phase</t>
+  </si>
+  <si>
+    <t>The regressions were run using a robust esti mator, an auto-regressive (AR1) working correlated structure, and linear model specification. The following variables were entered as time-varying independent variables: tobacco use and alcohol use (days in the last month); other drug use (number of illicit drug types used in the last six months, excluding cannabis); current psychological distress (DASS-21); and past month cannabis use. Past month cannabis use (days in the last month) was entered as a time-varying covariate to control for changes in cannabis use over time. The following baseline variables were also entered: age, gender, family history of psychosis, age of first cannabis use, age of first alcohol use, and lifetime Unusual Experiences score. The latter three variables were entered as covariates because they predicted loss to follow-up. Time and frequent use status were entered as factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> past month</t>
   </si>
 </sst>
 </file>
@@ -775,7 +1116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -920,6 +1261,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1061,7 +1408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1228,10 +1575,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1587,35 +1967,35 @@
 APS = Affective Psychosis ( i.e. MDD with psychotic features, bipolar disorder with psychotic features...)
 If studies with different populations were used in the pooled analysis, please state all (e.g. APS, NPS, SCZ)</text>
   </threadedComment>
-  <threadedComment ref="M1" dT="2021-07-21T20:29:37.10" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{E90F68CE-BF86-4A0E-B7E2-F0BF103A18BC}">
+  <threadedComment ref="N1" dT="2021-07-21T20:29:37.10" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{E90F68CE-BF86-4A0E-B7E2-F0BF103A18BC}">
     <text>How was the target population identified? e.g. DSM-5, ICD-10, CAARMS ...</text>
   </threadedComment>
-  <threadedComment ref="AJ1" dT="2021-07-21T21:16:32.43" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{25C5F2AB-3489-483F-8E68-5563E0E4FD4C}">
+  <threadedComment ref="AL1" dT="2021-07-21T21:16:32.43" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{25C5F2AB-3489-483F-8E68-5563E0E4FD4C}">
     <text>How was the outcome (transitioning to psychosis, psychotic symptoms, subclinical psychotic symptoms etc measured? 
 e.g. PANSS, DSM-5 ...</text>
   </threadedComment>
-  <threadedComment ref="AK1" dT="2020-01-30T15:47:15.22" personId="{CD06699D-F9B0-4E16-B3C7-56F9D6109F9B}" id="{6C4A7145-0951-4AEA-B922-EF3A53049A45}">
+  <threadedComment ref="AM1" dT="2020-01-30T15:47:15.22" personId="{CD06699D-F9B0-4E16-B3C7-56F9D6109F9B}" id="{6C4A7145-0951-4AEA-B922-EF3A53049A45}">
     <text>Use Prospective or Retrospective</text>
   </threadedComment>
-  <threadedComment ref="AN1" dT="2021-07-27T11:55:01.30" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{3579C19F-8CA7-49E5-A025-A44C02E786BC}">
+  <threadedComment ref="AP1" dT="2021-07-27T11:55:01.30" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{3579C19F-8CA7-49E5-A025-A44C02E786BC}">
     <text>use months</text>
   </threadedComment>
-  <threadedComment ref="AX1" dT="2021-07-22T10:51:44.19" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{89C1D350-60DF-4EF6-9B4A-8059A1237039}">
+  <threadedComment ref="AZ1" dT="2021-07-22T10:51:44.19" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{89C1D350-60DF-4EF6-9B4A-8059A1237039}">
     <text>These 4 purple columns are for “binary” or “raw” data that is used to calculate odds ratios. You can google “binary data for odds ratio” to get an understanding, but essentially each subject within a RF in a paper can only exist in one of these 4 purple columns, based on whether they have/do not used cannabis and whether they developed psychotic symptoms or not. This is why, in a paper that had e.g. 100 subjects, for a given risk factor, the sum total of these 4 purple columns will add up to 100.</text>
   </threadedComment>
-  <threadedComment ref="CX1" dT="2021-07-22T11:02:39.21" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{2967C25E-7ECF-417F-95B7-7B187617532F}">
+  <threadedComment ref="CZ1" dT="2021-07-22T11:02:39.21" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{2967C25E-7ECF-417F-95B7-7B187617532F}">
     <text>Make sure you are reporting the SD (and not SE, they are different!). If no SD and only SE, extract it and make a clear note.</text>
   </threadedComment>
-  <threadedComment ref="CZ1" dT="2021-07-22T11:02:44.92" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{5EF343A8-9211-4E48-8AA6-D42452ABDCCA}">
+  <threadedComment ref="DB1" dT="2021-07-22T11:02:44.92" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{5EF343A8-9211-4E48-8AA6-D42452ABDCCA}">
     <text>Make sure you are reporting the SD (and not SE, they are different!). If no SD and only SE, extract it and make a clear note.</text>
   </threadedComment>
-  <threadedComment ref="DB1" dT="2021-08-02T22:35:31.98" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{3AD5F74E-72C6-4EE6-BBBB-A14FAD1763B1}">
+  <threadedComment ref="DD1" dT="2021-08-02T22:35:31.98" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{3AD5F74E-72C6-4EE6-BBBB-A14FAD1763B1}">
     <text>What kind of stanardized mean difference is that? e.g. Cohen's d , Glass' delta</text>
   </threadedComment>
-  <threadedComment ref="DB1" dT="2021-08-03T00:07:06.64" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{7B2A2722-2B10-4D98-A067-59E16A31DB60}" parentId="{3AD5F74E-72C6-4EE6-BBBB-A14FAD1763B1}">
+  <threadedComment ref="DD1" dT="2021-08-03T00:07:06.64" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{7B2A2722-2B10-4D98-A067-59E16A31DB60}" parentId="{3AD5F74E-72C6-4EE6-BBBB-A14FAD1763B1}">
     <text>hedges g</text>
   </threadedComment>
-  <threadedComment ref="DE1" dT="2021-08-02T23:37:28.46" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{2D870865-A1BD-40C5-9F82-210C4FA1A8A5}">
+  <threadedComment ref="DG1" dT="2021-08-02T23:37:28.46" personId="{6B838454-0208-4B7B-8DDE-158AA8B1084E}" id="{2D870865-A1BD-40C5-9F82-210C4FA1A8A5}">
     <text>what is the p-value for the SMD?</text>
   </threadedComment>
 </ThreadedComments>
@@ -1623,48 +2003,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BCF2B3-B3E3-4473-A74F-1557EB7AB89B}">
-  <dimension ref="A1:DW11"/>
+  <dimension ref="A1:ED18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="110.26953125" customWidth="1"/>
+    <col min="1" max="1" width="156.54296875" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" customWidth="1"/>
     <col min="3" max="3" width="21.36328125" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="37.36328125" customWidth="1"/>
     <col min="5" max="5" width="84.453125" customWidth="1"/>
     <col min="6" max="6" width="129.90625" customWidth="1"/>
     <col min="7" max="7" width="15.36328125" customWidth="1"/>
-    <col min="10" max="10" width="28.81640625" customWidth="1"/>
-    <col min="13" max="13" width="23.36328125" customWidth="1"/>
-    <col min="16" max="16" width="24.453125" customWidth="1"/>
-    <col min="17" max="17" width="35" customWidth="1"/>
-    <col min="18" max="18" width="46.08984375" customWidth="1"/>
-    <col min="20" max="20" width="21.26953125" customWidth="1"/>
-    <col min="21" max="21" width="24.6328125" customWidth="1"/>
-    <col min="22" max="23" width="16.1796875" customWidth="1"/>
-    <col min="25" max="25" width="16" customWidth="1"/>
-    <col min="29" max="29" width="18.08984375" customWidth="1"/>
-    <col min="31" max="31" width="21.1796875" customWidth="1"/>
-    <col min="32" max="32" width="19.08984375" customWidth="1"/>
-    <col min="34" max="34" width="72.90625" customWidth="1"/>
-    <col min="35" max="35" width="19.453125" customWidth="1"/>
-    <col min="36" max="36" width="9.36328125" customWidth="1"/>
-    <col min="39" max="39" width="36.1796875" customWidth="1"/>
-    <col min="48" max="48" width="9.36328125" customWidth="1"/>
-    <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="117" max="117" width="8.1796875" customWidth="1"/>
-    <col min="118" max="118" width="51" customWidth="1"/>
-    <col min="119" max="119" width="31.36328125" customWidth="1"/>
-    <col min="120" max="120" width="31.08984375" customWidth="1"/>
-    <col min="122" max="122" width="21.90625" customWidth="1"/>
-    <col min="127" max="127" width="19.453125" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" customWidth="1"/>
+    <col min="10" max="10" width="128.90625" customWidth="1"/>
+    <col min="14" max="14" width="23.36328125" customWidth="1"/>
+    <col min="17" max="17" width="24.453125" customWidth="1"/>
+    <col min="18" max="18" width="35" customWidth="1"/>
+    <col min="19" max="19" width="46.08984375" customWidth="1"/>
+    <col min="21" max="21" width="21.26953125" customWidth="1"/>
+    <col min="22" max="22" width="24.6328125" customWidth="1"/>
+    <col min="23" max="23" width="16.1796875" customWidth="1"/>
+    <col min="24" max="24" width="22.36328125" customWidth="1"/>
+    <col min="26" max="26" width="19.81640625" customWidth="1"/>
+    <col min="27" max="27" width="37.6328125" customWidth="1"/>
+    <col min="28" max="28" width="15.54296875" customWidth="1"/>
+    <col min="29" max="29" width="22.1796875" customWidth="1"/>
+    <col min="30" max="30" width="27.26953125" customWidth="1"/>
+    <col min="32" max="32" width="21.1796875" customWidth="1"/>
+    <col min="33" max="33" width="19.08984375" customWidth="1"/>
+    <col min="34" max="34" width="22.453125" customWidth="1"/>
+    <col min="35" max="35" width="50" customWidth="1"/>
+    <col min="36" max="36" width="72.90625" customWidth="1"/>
+    <col min="37" max="37" width="19.453125" customWidth="1"/>
+    <col min="38" max="38" width="24.90625" customWidth="1"/>
+    <col min="41" max="41" width="36.1796875" customWidth="1"/>
+    <col min="42" max="42" width="22.90625" customWidth="1"/>
+    <col min="45" max="45" width="18.26953125" customWidth="1"/>
+    <col min="46" max="46" width="22.1796875" customWidth="1"/>
+    <col min="47" max="47" width="21.453125" customWidth="1"/>
+    <col min="50" max="51" width="23.08984375" customWidth="1"/>
+    <col min="56" max="56" width="13" customWidth="1"/>
+    <col min="58" max="62" width="10.90625" style="60"/>
+    <col min="112" max="114" width="10.90625" style="65"/>
+    <col min="115" max="120" width="10.90625" style="60"/>
+    <col min="121" max="121" width="8.1796875" style="60" customWidth="1"/>
+    <col min="122" max="122" width="51" customWidth="1"/>
+    <col min="123" max="123" width="31.36328125" customWidth="1"/>
+    <col min="124" max="124" width="31.08984375" customWidth="1"/>
+    <col min="126" max="126" width="21.90625" customWidth="1"/>
+    <col min="128" max="128" width="23.81640625" customWidth="1"/>
+    <col min="129" max="129" width="17.08984375" customWidth="1"/>
+    <col min="130" max="130" width="35.7265625" customWidth="1"/>
+    <col min="131" max="131" width="36.36328125" customWidth="1"/>
+    <col min="132" max="132" width="14.81640625" customWidth="1"/>
+    <col min="133" max="133" width="26.54296875" customWidth="1"/>
+    <col min="134" max="134" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" s="55" customFormat="1" ht="49.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:134" s="55" customFormat="1" ht="49.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>69</v>
       </c>
@@ -1681,7 +2081,7 @@
         <v>72</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>73</v>
@@ -1693,738 +2093,1685 @@
         <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="V1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="W1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="Y1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Z1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AE1" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR1" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV1" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX1" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY1" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF1" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG1" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH1" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI1" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ1" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK1" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL1" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BM1" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN1" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO1" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BP1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="BR1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU1" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV1" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW1" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="BX1" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="BY1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="BZ1" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="CA1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB1" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC1" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="CD1" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="CE1" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="CF1" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="CG1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="CH1" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="CI1" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="CJ1" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK1" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="CL1" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM1" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="CN1" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="CO1" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="CP1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="CQ1" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="CR1" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="CS1" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="CT1" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU1" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="CV1" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="CW1" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX1" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="CY1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="CZ1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="DA1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="DB1" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="DC1" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="DD1" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="DE1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="DF1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="DG1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="DH1" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="DI1" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="DJ1" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="DK1" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="DT1" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="DU1" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="DV1" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="DW1" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="DX1" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="DY1" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="DZ1" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="EA1" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="EB1" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="EC1" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="ED1" s="55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:134" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="78">
+        <v>2018</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="K2" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="O2" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="X2" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y2" s="78">
+        <v>155</v>
+      </c>
+      <c r="AA2" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB2" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC2" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ2" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL2" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM2" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO2" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR2" s="78">
+        <v>41</v>
+      </c>
+      <c r="AS2" s="78">
+        <v>114</v>
+      </c>
+      <c r="BF2" s="79"/>
+      <c r="BG2" s="79"/>
+      <c r="BH2" s="79"/>
+      <c r="BI2" s="79"/>
+      <c r="BJ2" s="79"/>
+      <c r="DH2" s="80"/>
+      <c r="DI2" s="80"/>
+      <c r="DJ2" s="80"/>
+      <c r="DK2" s="79"/>
+      <c r="DL2" s="79"/>
+      <c r="DM2" s="79"/>
+      <c r="DN2" s="79"/>
+      <c r="DO2" s="79"/>
+      <c r="DP2" s="79"/>
+      <c r="DQ2" s="79"/>
+      <c r="DV2" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="DW2" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="DX2" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="EA2" s="78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:134" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="78">
+        <v>2019</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="K3" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="O3" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="X3" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y3" s="78">
+        <v>156</v>
+      </c>
+      <c r="AA3" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB3" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC3" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD3" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="BF3" s="79"/>
+      <c r="BG3" s="79"/>
+      <c r="BH3" s="79"/>
+      <c r="BI3" s="79"/>
+      <c r="BJ3" s="79"/>
+      <c r="DH3" s="80"/>
+      <c r="DI3" s="80"/>
+      <c r="DJ3" s="80"/>
+      <c r="DK3" s="79"/>
+      <c r="DL3" s="79"/>
+      <c r="DM3" s="79"/>
+      <c r="DN3" s="79"/>
+      <c r="DO3" s="79"/>
+      <c r="DP3" s="79"/>
+      <c r="DQ3" s="79"/>
+      <c r="DV3" s="78" t="s">
+        <v>278</v>
+      </c>
+      <c r="DW3" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="DX3" s="78" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:134" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="78">
+        <v>2020</v>
+      </c>
+      <c r="I4" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="O4" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="X4" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y4" s="78">
+        <v>157</v>
+      </c>
+      <c r="Z4" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB4" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC4" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="BF4" s="79"/>
+      <c r="BG4" s="79"/>
+      <c r="BH4" s="79"/>
+      <c r="BI4" s="79"/>
+      <c r="BJ4" s="79"/>
+      <c r="DH4" s="80"/>
+      <c r="DI4" s="80"/>
+      <c r="DJ4" s="80"/>
+      <c r="DK4" s="79"/>
+      <c r="DL4" s="79"/>
+      <c r="DM4" s="79"/>
+      <c r="DN4" s="79"/>
+      <c r="DO4" s="79"/>
+      <c r="DP4" s="79"/>
+      <c r="DQ4" s="79"/>
+      <c r="DV4" s="78" t="s">
+        <v>280</v>
+      </c>
+      <c r="DW4" s="78" t="s">
+        <v>281</v>
+      </c>
+      <c r="DX4" s="78" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:134" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="78">
+        <v>2021</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="K5" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="O5" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="X5" s="78" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y5" s="78">
+        <v>158</v>
+      </c>
+      <c r="AA5" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB5" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC5" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="BF5" s="79"/>
+      <c r="BG5" s="79"/>
+      <c r="BH5" s="79"/>
+      <c r="BI5" s="79"/>
+      <c r="BJ5" s="79"/>
+      <c r="DH5" s="80"/>
+      <c r="DI5" s="80"/>
+      <c r="DJ5" s="80"/>
+      <c r="DK5" s="79"/>
+      <c r="DL5" s="79"/>
+      <c r="DM5" s="79"/>
+      <c r="DN5" s="79"/>
+      <c r="DO5" s="79"/>
+      <c r="DP5" s="79"/>
+      <c r="DQ5" s="79"/>
+      <c r="DV5" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="DW5" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="DX5" s="78" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:134" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="78">
+        <v>2022</v>
+      </c>
+      <c r="I6" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="K6" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="O6" s="78" t="s">
+        <v>294</v>
+      </c>
+      <c r="X6" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y6" s="78">
+        <v>159</v>
+      </c>
+      <c r="AA6" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB6" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC6" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD6" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="BF6" s="79"/>
+      <c r="BG6" s="79"/>
+      <c r="BH6" s="79"/>
+      <c r="BI6" s="79"/>
+      <c r="BJ6" s="79"/>
+      <c r="DH6" s="80"/>
+      <c r="DI6" s="80"/>
+      <c r="DJ6" s="80"/>
+      <c r="DK6" s="79"/>
+      <c r="DL6" s="79"/>
+      <c r="DM6" s="79"/>
+      <c r="DN6" s="79"/>
+      <c r="DO6" s="79"/>
+      <c r="DP6" s="79"/>
+      <c r="DQ6" s="79"/>
+      <c r="DV6" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="DW6" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="DX6" s="78" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:134" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="78">
+        <v>2023</v>
+      </c>
+      <c r="I7" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="O7" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="X7" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y7" s="78">
+        <v>160</v>
+      </c>
+      <c r="Z7" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB7" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC7" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="BF7" s="79"/>
+      <c r="BG7" s="79"/>
+      <c r="BH7" s="79"/>
+      <c r="BI7" s="79"/>
+      <c r="BJ7" s="79"/>
+      <c r="DH7" s="80"/>
+      <c r="DI7" s="80"/>
+      <c r="DJ7" s="80"/>
+      <c r="DK7" s="79"/>
+      <c r="DL7" s="79"/>
+      <c r="DM7" s="79"/>
+      <c r="DN7" s="79"/>
+      <c r="DO7" s="79"/>
+      <c r="DP7" s="79"/>
+      <c r="DQ7" s="79"/>
+      <c r="DV7" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="DW7" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="DX7" s="78" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:134" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF8" s="69"/>
+      <c r="BG8" s="69"/>
+      <c r="BH8" s="69"/>
+      <c r="BI8" s="69"/>
+      <c r="BJ8" s="69"/>
+      <c r="DH8" s="70"/>
+      <c r="DI8" s="70"/>
+      <c r="DJ8" s="70"/>
+      <c r="DK8" s="69"/>
+      <c r="DL8" s="69"/>
+      <c r="DM8" s="69"/>
+      <c r="DN8" s="69"/>
+      <c r="DO8" s="69"/>
+      <c r="DP8" s="69"/>
+      <c r="DQ8" s="69"/>
+    </row>
+    <row r="9" spans="1:134" s="71" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="71">
+        <v>2007</v>
+      </c>
+      <c r="I9" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="M9" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="O9" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="P9" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z9" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA9" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB9" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD9" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH9" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL9" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM9" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO9" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP9" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ9" s="71">
+        <v>70</v>
+      </c>
+      <c r="BF9" s="72"/>
+      <c r="BG9" s="72"/>
+      <c r="BH9" s="72"/>
+      <c r="BI9" s="72"/>
+      <c r="BJ9" s="72"/>
+      <c r="DH9" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="DI9" s="73"/>
+      <c r="DJ9" s="73"/>
+      <c r="DK9" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="DL9" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="DM9" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="DN9" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="DO9" s="72"/>
+      <c r="DP9" s="72"/>
+      <c r="DQ9" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="DR9" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="DS9" s="71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:134" s="74" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="74">
+        <v>2011</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="N10" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q10" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="R10" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y10" s="74">
+        <v>72</v>
+      </c>
+      <c r="AA10" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB10" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC10" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ10" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL10" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM10" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO10" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP10" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ10" s="74">
+        <v>72</v>
+      </c>
+      <c r="AR10" s="74">
+        <v>21</v>
+      </c>
+      <c r="AW10" s="74">
+        <v>19</v>
+      </c>
+      <c r="AX10" s="74">
+        <v>53</v>
+      </c>
+      <c r="AZ10" s="74">
+        <v>4</v>
+      </c>
+      <c r="BB10" s="74">
+        <v>17</v>
+      </c>
+      <c r="BF10" s="75"/>
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="75"/>
+      <c r="DH10" s="76"/>
+      <c r="DI10" s="76"/>
+      <c r="DJ10" s="76"/>
+      <c r="DK10" s="75"/>
+      <c r="DL10" s="75"/>
+      <c r="DM10" s="75"/>
+      <c r="DN10" s="75"/>
+      <c r="DO10" s="75"/>
+      <c r="DP10" s="75"/>
+      <c r="DQ10" s="75"/>
+      <c r="DV10" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="DW10" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="EA10" s="74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:134" s="74" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="74">
+        <v>2011</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q11" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="R11" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" s="74">
+        <v>72</v>
+      </c>
+      <c r="AA11" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB11" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC11" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ11" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK11" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL11" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="AJ1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL1" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AM11" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO11" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP11" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ11" s="74">
+        <v>72</v>
+      </c>
+      <c r="AR11" s="74">
+        <v>22</v>
+      </c>
+      <c r="AW11" s="74">
+        <v>19</v>
+      </c>
+      <c r="AX11" s="74">
+        <v>53</v>
+      </c>
+      <c r="AZ11" s="74">
+        <v>4</v>
+      </c>
+      <c r="BB11" s="74">
+        <v>18</v>
+      </c>
+      <c r="BF11" s="75"/>
+      <c r="BG11" s="75"/>
+      <c r="BH11" s="75"/>
+      <c r="BI11" s="75"/>
+      <c r="BJ11" s="75"/>
+      <c r="DH11" s="76"/>
+      <c r="DI11" s="76"/>
+      <c r="DJ11" s="76"/>
+      <c r="DK11" s="75"/>
+      <c r="DL11" s="75"/>
+      <c r="DM11" s="75"/>
+      <c r="DN11" s="75"/>
+      <c r="DO11" s="75"/>
+      <c r="DP11" s="75"/>
+      <c r="DQ11" s="75"/>
+      <c r="DV11" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="DW11" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="EA11" s="74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:134" s="71" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="71">
+        <v>2018</v>
+      </c>
+      <c r="I12" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="J12" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="K12" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="O12" s="71">
         <v>17</v>
       </c>
-      <c r="AP1" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ1" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS1" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT1" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV1" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="AW1" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="AX1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="BB1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC1" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD1" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="BE1" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF1" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="BG1" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="BH1" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="BI1" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ1" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BK1" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL1" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="BM1" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN1" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO1" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="BP1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR1" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="BS1" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT1" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="BU1" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="BV1" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="BW1" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="BX1" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="BZ1" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="CA1" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="CB1" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="CC1" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="CD1" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="CE1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF1" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="CG1" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="CH1" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="CI1" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="CJ1" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="CK1" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="CL1" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="CM1" s="44" t="s">
+      <c r="X12" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y12" s="71">
+        <v>1658</v>
+      </c>
+      <c r="AA12" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB12" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC12" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ12" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP12" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ12" s="71">
+        <v>1658</v>
+      </c>
+      <c r="AR12" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS12" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="BF12" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="BG12" s="72"/>
+      <c r="BH12" s="72"/>
+      <c r="BI12" s="72"/>
+      <c r="BJ12" s="72"/>
+      <c r="DH12" s="73"/>
+      <c r="DI12" s="73"/>
+      <c r="DJ12" s="73"/>
+      <c r="DK12" s="72"/>
+      <c r="DL12" s="72"/>
+      <c r="DM12" s="72"/>
+      <c r="DN12" s="72"/>
+      <c r="DO12" s="72"/>
+      <c r="DP12" s="72"/>
+      <c r="DQ12" s="72"/>
+    </row>
+    <row r="13" spans="1:134" s="71" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="X13" s="71">
+        <v>69</v>
+      </c>
+      <c r="Z13" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA13" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB13" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD13" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH13" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ13" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL13" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM13" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO13" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP13" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="DH13" s="73" t="s">
+        <v>244</v>
+      </c>
+      <c r="DI13" s="73" t="s">
+        <v>245</v>
+      </c>
+      <c r="DJ13" s="73" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:134" s="71" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="71">
+        <v>2016</v>
+      </c>
+      <c r="I14" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="J14" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="L14" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="M14" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="X14" s="71">
+        <v>69</v>
+      </c>
+      <c r="Z14" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA14" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB14" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD14" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH14" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ14" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL14" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM14" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO14" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP14" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ14" s="71">
+        <v>1027</v>
+      </c>
+      <c r="AR14" s="71">
+        <v>279</v>
+      </c>
+      <c r="BF14" s="72"/>
+      <c r="BG14" s="72"/>
+      <c r="BH14" s="72"/>
+      <c r="BI14" s="72"/>
+      <c r="BJ14" s="72"/>
+      <c r="DG14" s="77"/>
+      <c r="DH14" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="DI14" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="DJ14" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="DK14" s="72"/>
+      <c r="DL14" s="72"/>
+      <c r="DM14" s="72"/>
+      <c r="DN14" s="72"/>
+      <c r="DO14" s="72"/>
+      <c r="DP14" s="72"/>
+      <c r="DQ14" s="72"/>
+    </row>
+    <row r="15" spans="1:134" s="71" customFormat="1" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="71">
+        <v>2017</v>
+      </c>
+      <c r="I15" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="J15" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="K15" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="M15" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="P15" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH15" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL15" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM15" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO15" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="DH15" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="DI15" s="73" t="s">
+        <v>247</v>
+      </c>
+      <c r="DJ15" s="73" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:134" s="71" customFormat="1" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="71">
+        <v>2018</v>
+      </c>
+      <c r="I16" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="J16" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="K16" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="M16" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="P16" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH16" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL16" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM16" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO16" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="DH16" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="DI16" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="DJ16" s="73" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:131" s="71" customFormat="1" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G17" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="71">
+        <v>2019</v>
+      </c>
+      <c r="I17" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="J17" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="M17" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="P17" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH17" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL17" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM17" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO17" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="DH17" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="DI17" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="DJ17" s="73" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:131" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="56">
+        <v>2014</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="N18" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="O18" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q18" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="R18" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="X18" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA18" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB18" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK18" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL18" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM18" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO18" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP18" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW18" s="56">
         <v>49</v>
       </c>
-      <c r="CN1" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="CO1" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="CP1" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="CQ1" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="CR1" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS1" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="CT1" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="CU1" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="CV1" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="CW1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="CX1" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="CY1" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="CZ1" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="DA1" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="DB1" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="DC1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="DD1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="DE1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="DF1" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="DG1" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="DH1" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="DI1" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="DJ1" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="DK1" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="DL1" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="DM1" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="DN1" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="DO1" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="DP1" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="DQ1" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="DR1" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="DS1" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="DT1" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="DU1" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="DV1" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="DW1" s="55" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:127" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="56">
-        <v>2015</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="W5" s="56">
-        <v>100</v>
-      </c>
-      <c r="Z5" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC5" s="56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:127" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="58">
-        <v>2007</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="L6" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="N6" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="O6" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y6" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z6" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA6" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC6" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH6" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ6" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK6" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM6" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN6" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO6" s="58">
-        <v>70</v>
-      </c>
-      <c r="DF6" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="DG6" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="DH6" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="DI6" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="DJ6" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="DM6" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="DN6" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="DO6" s="58" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:127" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="57">
-        <v>2011</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="K7" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="M7" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="P7" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q7" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="X7" s="57">
-        <v>72</v>
-      </c>
-      <c r="Z7" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA7" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB7" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH7" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI7" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ7" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK7" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM7" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN7" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="AO7" s="57">
-        <v>72</v>
-      </c>
-      <c r="AP7" s="57">
-        <v>21</v>
-      </c>
-      <c r="AU7" s="57">
-        <v>19</v>
-      </c>
-      <c r="AV7" s="57">
-        <v>53</v>
-      </c>
-      <c r="AX7" s="57">
-        <v>4</v>
-      </c>
-      <c r="AZ7" s="57">
-        <v>17</v>
-      </c>
-      <c r="DR7" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="DS7" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="DW7" s="57" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:127" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" s="57">
-        <v>2011</v>
-      </c>
-      <c r="I8" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="J8" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="K8" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="M8" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="P8" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q8" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="X8" s="57">
-        <v>72</v>
-      </c>
-      <c r="Z8" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA8" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB8" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH8" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI8" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ8" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK8" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM8" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN8" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="AO8" s="57">
-        <v>72</v>
-      </c>
-      <c r="AP8" s="57">
-        <v>22</v>
-      </c>
-      <c r="AU8" s="57">
-        <v>19</v>
-      </c>
-      <c r="AV8" s="57">
-        <v>53</v>
-      </c>
-      <c r="AX8" s="57">
-        <v>4</v>
-      </c>
-      <c r="AZ8" s="57">
-        <v>18</v>
-      </c>
-      <c r="DR8" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="DS8" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="DW8" s="57" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11">
-        <v>2014</v>
+      <c r="AX18" s="56">
+        <v>77</v>
+      </c>
+      <c r="AZ18" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="BB18" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="BF18" s="57"/>
+      <c r="BG18" s="57"/>
+      <c r="BH18" s="57"/>
+      <c r="BI18" s="57"/>
+      <c r="BJ18" s="57"/>
+      <c r="DH18" s="66"/>
+      <c r="DI18" s="66"/>
+      <c r="DJ18" s="66"/>
+      <c r="DK18" s="57"/>
+      <c r="DL18" s="57"/>
+      <c r="DM18" s="57"/>
+      <c r="DN18" s="57"/>
+      <c r="DO18" s="57"/>
+      <c r="DP18" s="57"/>
+      <c r="DQ18" s="57"/>
+      <c r="EA18" s="56" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
